--- a/storage/МРП - Тестовые файлы/очищает необяз строку при пустом значении.xlsx
+++ b/storage/МРП - Тестовые файлы/очищает необяз строку при пустом значении.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">ПолеСтрока</t>
+    <t xml:space="preserve">Строка</t>
   </si>
 </sst>
 </file>
@@ -156,10 +156,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.15"/>
   </cols>
